--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230808053</t>
+          <t>GSD230925003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ23880053-N002</t>
+          <t>BJ239Q0003-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230808044</t>
+          <t>GSD230925006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ23880044-N002</t>
+          <t>BJ239Q0006-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230808039</t>
+          <t>GSD230925011</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ23880039-N002</t>
+          <t>BJ239Q0011-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230808049</t>
+          <t>GSD230925009</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ23880049-N002</t>
+          <t>BJ239Q0009-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230808055</t>
+          <t>GSD230925010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ23880055-N002</t>
+          <t>BJ239Q0010-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230808051</t>
+          <t>GSD230925008</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ23880051-N002</t>
+          <t>BJ239Q0008-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230808054</t>
+          <t>GSD230925004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ23880054-N002</t>
+          <t>BJ239Q0004-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230808041</t>
+          <t>GSD230925015</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ23880041-N002</t>
+          <t>BJ239Q0015-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230808047</t>
+          <t>GSD230925019</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ23880047-N002</t>
+          <t>BJ239Q0019-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230808043</t>
+          <t>GSD230925020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ23880043-N002</t>
+          <t>BJ239Q0020-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD230808040</t>
+          <t>GSD230925014</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BJ23880040-N002</t>
+          <t>BJ239Q0014-N002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -633,12 +633,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD230808038</t>
+          <t>GSD230925018</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BJ23880038-N002</t>
+          <t>BJ239Q0018-N002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -650,12 +650,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD230808052</t>
+          <t>GSD230925005</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BJ23880052-N002</t>
+          <t>BJ239Q0005-N002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -667,12 +667,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD230808037</t>
+          <t>GSD230925007</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BJ23880037-N002</t>
+          <t>BJ239Q0007-N002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -684,12 +684,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD230808050</t>
+          <t>GSD230925013</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BJ23880050-N002</t>
+          <t>BJ239Q0013-N002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -701,12 +701,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD230808042</t>
+          <t>GSD230925012</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BJ23880042-N002</t>
+          <t>BJ239Q0012-N002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -718,12 +718,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD230808048</t>
+          <t>GSD230925001</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BJ23880048-N002</t>
+          <t>BJ239Q0001-N002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -735,12 +735,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD230808045</t>
+          <t>GSD230925016</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BJ23880045-N002</t>
+          <t>BJ239Q0016-N002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -752,12 +752,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD230808046</t>
+          <t>GSD230925002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BJ23880046-N002</t>
+          <t>BJ239Q0002-N002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -769,12 +769,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD230808036</t>
+          <t>GSD230925017</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BJ23880036-N002</t>
+          <t>BJ239Q0017-N002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230925003</t>
+          <t>GSD230926057</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ239Q0003-N002</t>
+          <t>BJ239R0057-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230925006</t>
+          <t>GSD230926059</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ239Q0006-N002</t>
+          <t>BJ239R0059-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230925011</t>
+          <t>GSD230926060</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ239Q0011-N002</t>
+          <t>BJ239R0060-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230925009</t>
+          <t>GSD230926069</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ239Q0009-N002</t>
+          <t>BJ239R0069-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230925010</t>
+          <t>GSD230926072</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ239Q0010-N002</t>
+          <t>BJ239R0072-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230925008</t>
+          <t>GSD230926074</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ239Q0008-N002</t>
+          <t>BJ239R0074-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230925004</t>
+          <t>GSD230926073</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ239Q0004-N002</t>
+          <t>BJ239R0073-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230925015</t>
+          <t>GSD230926061</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ239Q0015-N002</t>
+          <t>BJ239R0061-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230925019</t>
+          <t>GSD230926068</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ239Q0019-N002</t>
+          <t>BJ239R0068-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230925020</t>
+          <t>GSD230926056</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ239Q0020-N002</t>
+          <t>BJ239R0056-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD230925014</t>
+          <t>GSD230926062</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BJ239Q0014-N002</t>
+          <t>BJ239R0062-N002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -633,12 +633,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD230925018</t>
+          <t>GSD230926065</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BJ239Q0018-N002</t>
+          <t>BJ239R0065-N002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -650,12 +650,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD230925005</t>
+          <t>GSD230926064</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BJ239Q0005-N002</t>
+          <t>BJ239R0064-N002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -667,12 +667,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD230925007</t>
+          <t>GSD230926058</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BJ239Q0007-N002</t>
+          <t>BJ239R0058-N002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -684,12 +684,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD230925013</t>
+          <t>GSD230926067</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BJ239Q0013-N002</t>
+          <t>BJ239R0067-N002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -701,12 +701,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD230925012</t>
+          <t>GSD230926066</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BJ239Q0012-N002</t>
+          <t>BJ239R0066-N002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -718,12 +718,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD230925001</t>
+          <t>GSD230926070</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BJ239Q0001-N002</t>
+          <t>BJ239R0070-N002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -735,12 +735,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD230925016</t>
+          <t>GSD230926075</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BJ239Q0016-N002</t>
+          <t>BJ239R0075-N002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -752,12 +752,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD230925002</t>
+          <t>GSD230926071</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BJ239Q0002-N002</t>
+          <t>BJ239R0071-N002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -769,12 +769,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD230925017</t>
+          <t>GSD230926063</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BJ239Q0017-N002</t>
+          <t>BJ239R0063-N002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230926057</t>
+          <t>GSD231027001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ239R0057-N002</t>
+          <t>BJ230S0001-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230926059</t>
+          <t>GSD231027003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ239R0059-N002</t>
+          <t>BJ230S0003-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230926060</t>
+          <t>GSD231027010</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ239R0060-N002</t>
+          <t>BJ230S0010-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230926069</t>
+          <t>GSD231027007</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ239R0069-N002</t>
+          <t>BJ230S0007-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230926072</t>
+          <t>GSD231027008</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ239R0072-N002</t>
+          <t>BJ230S0008-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230926074</t>
+          <t>GSD231027006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ239R0074-N002</t>
+          <t>BJ230S0006-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230926073</t>
+          <t>GSD231027009</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ239R0073-N002</t>
+          <t>BJ230S0009-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230926061</t>
+          <t>GSD231027015</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ239R0061-N002</t>
+          <t>BJ230S0015-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230926068</t>
+          <t>GSD231027013</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ239R0068-N002</t>
+          <t>BJ230S0013-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230926056</t>
+          <t>GSD231027018</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ239R0056-N002</t>
+          <t>BJ230S0018-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD230926062</t>
+          <t>GSD231027002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BJ239R0062-N002</t>
+          <t>BJ230S0002-N002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -633,12 +633,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD230926065</t>
+          <t>GSD231027019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BJ239R0065-N002</t>
+          <t>BJ230S0019-N002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -650,12 +650,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD230926064</t>
+          <t>GSD231027014</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BJ239R0064-N002</t>
+          <t>BJ230S0014-N002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -667,12 +667,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD230926058</t>
+          <t>GSD231027017</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BJ239R0058-N002</t>
+          <t>BJ230S0017-N002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -684,12 +684,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD230926067</t>
+          <t>GSD231027016</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BJ239R0067-N002</t>
+          <t>BJ230S0016-N002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -701,12 +701,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD230926066</t>
+          <t>GSD231027004</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BJ239R0066-N002</t>
+          <t>BJ230S0004-N002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -718,12 +718,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD230926070</t>
+          <t>GSD231027011</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BJ239R0070-N002</t>
+          <t>BJ230S0011-N002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -735,12 +735,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD230926075</t>
+          <t>GSD231027020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BJ239R0075-N002</t>
+          <t>BJ230S0020-N002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -752,12 +752,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD230926071</t>
+          <t>GSD231027005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BJ239R0071-N002</t>
+          <t>BJ230S0005-N002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -769,12 +769,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD230926063</t>
+          <t>GSD231027012</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BJ239R0063-N002</t>
+          <t>BJ230S0012-N002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD231027001</t>
+          <t>GSD240116006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ230S0001-N002</t>
+          <t>BJ241F0009-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD231027003</t>
+          <t>GSD240116007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ230S0003-N002</t>
+          <t>BJ241F0010-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD231027010</t>
+          <t>GSD240116008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ230S0010-N002</t>
+          <t>BJ241F0011-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD231027007</t>
+          <t>GSD240116009</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ230S0007-N002</t>
+          <t>BJ241F0012-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD231027008</t>
+          <t>GSD240116010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ230S0008-N002</t>
+          <t>BJ241F0013-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD231027006</t>
+          <t>GSD240116011</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ230S0006-N002</t>
+          <t>BJ241F0014-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD231027009</t>
+          <t>GSD240116012</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ230S0009-N002</t>
+          <t>BJ241F0015-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD231027015</t>
+          <t>GSD240116024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ230S0015-N002</t>
+          <t>BJ241F0027-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD231027013</t>
+          <t>GSD240116014</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ230S0013-N002</t>
+          <t>BJ241F0017-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD231027018</t>
+          <t>GSD240116023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ230S0018-N002</t>
+          <t>BJ241F0026-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD231027002</t>
+          <t>GSD240116018</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BJ230S0002-N002</t>
+          <t>BJ241F0021-N002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -633,12 +633,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD231027019</t>
+          <t>GSD240116020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BJ230S0019-N002</t>
+          <t>BJ241F0023-N002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -650,12 +650,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD231027014</t>
+          <t>GSD240116022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BJ230S0014-N002</t>
+          <t>BJ241F0025-N002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -667,12 +667,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD231027017</t>
+          <t>GSD240116019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BJ230S0017-N002</t>
+          <t>BJ241F0022-N002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -684,12 +684,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD231027016</t>
+          <t>GSD240116013</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BJ230S0016-N002</t>
+          <t>BJ241F0016-N002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -701,12 +701,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD231027004</t>
+          <t>GSD240116021</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BJ230S0004-N002</t>
+          <t>BJ241F0024-N002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -718,12 +718,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD231027011</t>
+          <t>GSD240116005</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BJ230S0011-N002</t>
+          <t>BJ241F0008-N002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -735,12 +735,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD231027020</t>
+          <t>GSD240116015</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BJ230S0020-N002</t>
+          <t>BJ241F0018-N002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -752,12 +752,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD231027005</t>
+          <t>GSD240116016</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BJ230S0005-N002</t>
+          <t>BJ241F0019-N002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -769,12 +769,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD231027012</t>
+          <t>GSD240116017</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BJ230S0012-N002</t>
+          <t>BJ241F0020-N002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240116006</t>
+          <t>GSD240116222</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ241F0009-N002</t>
+          <t>BJ241F0220-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240116007</t>
+          <t>GSD240116215</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ241F0010-N002</t>
+          <t>BJ241F0213-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240116008</t>
+          <t>GSD240116224</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ241F0011-N002</t>
+          <t>BJ241F0222-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240116009</t>
+          <t>GSD240116209</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ241F0012-N002</t>
+          <t>BJ241F0207-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD240116010</t>
+          <t>GSD240116223</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ241F0013-N002</t>
+          <t>BJ241F0221-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD240116011</t>
+          <t>GSD240116214</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ241F0014-N002</t>
+          <t>BJ241F0212-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD240116012</t>
+          <t>GSD240116210</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ241F0015-N002</t>
+          <t>BJ241F0208-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD240116024</t>
+          <t>GSD240116216</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ241F0027-N002</t>
+          <t>BJ241F0214-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD240116014</t>
+          <t>GSD240116213</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ241F0017-N002</t>
+          <t>BJ241F0211-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD240116023</t>
+          <t>GSD240116208</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ241F0026-N002</t>
+          <t>BJ241F0206-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -616,12 +616,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD240116018</t>
+          <t>GSD240116207</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BJ241F0021-N002</t>
+          <t>BJ241F0205-N002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -633,12 +633,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD240116020</t>
+          <t>GSD240116211</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BJ241F0023-N002</t>
+          <t>BJ241F0209-N002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -650,12 +650,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD240116022</t>
+          <t>GSD240116217</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BJ241F0025-N002</t>
+          <t>BJ241F0215-N002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -667,12 +667,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD240116019</t>
+          <t>GSD240116218</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BJ241F0022-N002</t>
+          <t>BJ241F0216-N002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -684,12 +684,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD240116013</t>
+          <t>GSD240116219</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BJ241F0016-N002</t>
+          <t>BJ241F0217-N002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -701,12 +701,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD240116021</t>
+          <t>GSD240116220</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BJ241F0024-N002</t>
+          <t>BJ241F0218-N002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -718,12 +718,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD240116005</t>
+          <t>GSD240116221</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BJ241F0008-N002</t>
+          <t>BJ241F0219-N002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -735,12 +735,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD240116015</t>
+          <t>GSD240116226</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BJ241F0018-N002</t>
+          <t>BJ241F0224-N002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -752,12 +752,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD240116016</t>
+          <t>GSD240116225</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BJ241F0019-N002</t>
+          <t>BJ241F0223-N002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -769,12 +769,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD240116017</t>
+          <t>GSD240116212</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BJ241F0020-N002</t>
+          <t>BJ241F0210-N002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240116222</t>
+          <t>GSD240130066</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ241F0220-N002</t>
+          <t>BJ241V0064-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240116215</t>
+          <t>GSD240130070</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ241F0213-N002</t>
+          <t>BJ241V0068-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240116224</t>
+          <t>GSD240130064</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ241F0222-N002</t>
+          <t>BJ241V0062-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240116209</t>
+          <t>GSD240130065</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ241F0207-N002</t>
+          <t>BJ241V0063-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD240116223</t>
+          <t>GSD240130071</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ241F0221-N002</t>
+          <t>BJ241V0069-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD240116214</t>
+          <t>GSD240130067</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ241F0212-N002</t>
+          <t>BJ241V0065-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD240116210</t>
+          <t>GSD240130073</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ241F0208-N002</t>
+          <t>BJ241V0071-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD240116216</t>
+          <t>GSD240130068</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ241F0214-N002</t>
+          <t>BJ241V0066-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD240116213</t>
+          <t>GSD240130069</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ241F0211-N002</t>
+          <t>BJ241V0067-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,185 +599,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD240116208</t>
+          <t>GSD240130072</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ241F0206-N002</t>
+          <t>BJ241V0070-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>DNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GSD240116207</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BJ241F0205-N002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>DNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>GSD240116211</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BJ241F0209-N002</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>GSD240116217</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BJ241F0215-N002</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GSD240116218</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BJ241F0216-N002</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>DNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>GSD240116219</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BJ241F0217-N002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>DNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GSD240116220</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>BJ241F0218-N002</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>DNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GSD240116221</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BJ241F0219-N002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>DNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>GSD240116226</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BJ241F0224-N002</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>DNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>GSD240116225</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BJ241F0223-N002</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>DNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>GSD240116212</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BJ241F0210-N002</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>DNA</t>
         </is>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240130066</t>
+          <t>GSD240219048</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ241V0064-N002</t>
+          <t>BJ242J0048-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240130070</t>
+          <t>GSD240219049</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ241V0068-N002</t>
+          <t>BJ242J0049-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240130064</t>
+          <t>GSD240219046</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ241V0062-N002</t>
+          <t>BJ242J0046-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240130065</t>
+          <t>GSD240219050</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ241V0063-N002</t>
+          <t>BJ242J0050-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD240130071</t>
+          <t>GSD240219052</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ241V0069-N002</t>
+          <t>BJ242J0052-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD240130067</t>
+          <t>GSD240219054</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ241V0065-N002</t>
+          <t>BJ242J0054-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD240130073</t>
+          <t>GSD240219051</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ241V0071-N002</t>
+          <t>BJ242J0051-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD240130068</t>
+          <t>GSD240219055</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ241V0066-N002</t>
+          <t>BJ242J0055-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD240130069</t>
+          <t>GSD240219053</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ241V0067-N002</t>
+          <t>BJ242J0053-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD240130072</t>
+          <t>GSD240219047</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ241V0070-N002</t>
+          <t>BJ242J0047-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
